--- a/resource/cn/csv/Item.xlsx
+++ b/resource/cn/csv/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\egret\work\egret_synthesis_game\resource\cn\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A93AF1-EC8E-4D4D-A291-AEF2A991A408}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5244B7-B05E-41F9-80B8-8CF1B01D74DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -401,7 +401,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -409,7 +409,7 @@
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="15.875" customWidth="1"/>
-    <col min="6" max="6" width="32.625" customWidth="1"/>
+    <col min="6" max="6" width="38.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -483,7 +483,7 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>10001</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -503,7 +503,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>10002</v>
       </c>
       <c r="E5">
         <v>4</v>
